--- a/VMMM_v2.0.0.xlsx
+++ b/VMMM_v2.0.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ristoj/Library/CloudStorage/OneDrive-ZenzizenSec/Maturity models/New VMMM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F310A3-28B8-F24F-BE83-3F34A884B449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61A6D97-F834-0F45-990D-EA0E8170850F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="38400" windowHeight="20980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1136,6 +1136,13 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1148,13 +1155,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1462,8 +1462,8 @@
   </sheetPr>
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17" defaultRowHeight="20" x14ac:dyDescent="0.2"/>
@@ -1475,19 +1475,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="26" t="s">
         <v>298</v>
       </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="24" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="24" t="s">
         <v>300</v>
       </c>
     </row>
@@ -1515,7 +1515,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="136" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="27" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1541,7 +1541,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="135" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="24"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
@@ -1565,7 +1565,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="135" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="24"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
@@ -1589,7 +1589,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="24"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
@@ -1613,7 +1613,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="119" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="24"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
@@ -1637,7 +1637,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="124" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="24"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
@@ -1661,7 +1661,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="122" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="24"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1685,7 +1685,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="145" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="24"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="6" t="s">
         <v>11</v>
       </c>
@@ -1757,7 +1757,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="111" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="28" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="9" t="s">
@@ -1783,7 +1783,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="121" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="25"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="6" t="s">
         <v>14</v>
       </c>
@@ -1807,7 +1807,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="102" x14ac:dyDescent="0.2">
-      <c r="A17" s="25"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="9" t="s">
         <v>16</v>
       </c>
@@ -1831,7 +1831,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="129" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="25"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="6" t="s">
         <v>18</v>
       </c>
@@ -1855,7 +1855,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="169" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="25"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="9" t="s">
         <v>15</v>
       </c>
@@ -1879,7 +1879,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="124" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="25"/>
+      <c r="A20" s="28"/>
       <c r="B20" s="6" t="s">
         <v>17</v>
       </c>
@@ -1951,7 +1951,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="139" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="29" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="11" t="s">
@@ -1977,7 +1977,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="152" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="26"/>
+      <c r="A24" s="29"/>
       <c r="B24" s="6" t="s">
         <v>23</v>
       </c>
@@ -2001,7 +2001,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="26"/>
+      <c r="A25" s="29"/>
       <c r="B25" s="11" t="s">
         <v>27</v>
       </c>
@@ -2025,7 +2025,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="171" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="26"/>
+      <c r="A26" s="29"/>
       <c r="B26" s="6" t="s">
         <v>20</v>
       </c>
@@ -2049,7 +2049,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="143" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="26"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="11" t="s">
         <v>22</v>
       </c>
@@ -2073,7 +2073,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="176" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="26"/>
+      <c r="A28" s="29"/>
       <c r="B28" s="6" t="s">
         <v>234</v>
       </c>
@@ -2097,7 +2097,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="123" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="26"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="11" t="s">
         <v>26</v>
       </c>
@@ -2121,7 +2121,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="187" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="26"/>
+      <c r="A30" s="29"/>
       <c r="B30" s="6" t="s">
         <v>28</v>
       </c>
@@ -2145,7 +2145,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="159" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="26"/>
+      <c r="A31" s="29"/>
       <c r="B31" s="11" t="s">
         <v>24</v>
       </c>
@@ -2169,7 +2169,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="138.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B32" s="13" t="s">
@@ -2195,7 +2195,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="166" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="27"/>
+      <c r="A33" s="30"/>
       <c r="B33" s="6" t="s">
         <v>33</v>
       </c>
@@ -2219,7 +2219,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="102" x14ac:dyDescent="0.2">
-      <c r="A34" s="27"/>
+      <c r="A34" s="30"/>
       <c r="B34" s="13" t="s">
         <v>30</v>
       </c>
@@ -2243,7 +2243,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="136" x14ac:dyDescent="0.2">
-      <c r="A35" s="27"/>
+      <c r="A35" s="30"/>
       <c r="B35" s="6" t="s">
         <v>34</v>
       </c>
@@ -2267,7 +2267,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="119" x14ac:dyDescent="0.2">
-      <c r="A36" s="27"/>
+      <c r="A36" s="30"/>
       <c r="B36" s="13" t="s">
         <v>31</v>
       </c>
@@ -2315,7 +2315,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="159" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="25" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="15" t="s">
@@ -2341,7 +2341,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="130" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="28"/>
+      <c r="A39" s="25"/>
       <c r="B39" s="6" t="s">
         <v>42</v>
       </c>
@@ -2365,7 +2365,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="151" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="28"/>
+      <c r="A40" s="25"/>
       <c r="B40" s="15" t="s">
         <v>37</v>
       </c>
@@ -2389,7 +2389,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="150.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="28"/>
+      <c r="A41" s="25"/>
       <c r="B41" s="6" t="s">
         <v>38</v>
       </c>
@@ -2413,7 +2413,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="157" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="28"/>
+      <c r="A42" s="25"/>
       <c r="B42" s="15" t="s">
         <v>39</v>
       </c>
@@ -2437,7 +2437,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="136" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="28"/>
+      <c r="A43" s="25"/>
       <c r="B43" s="6" t="s">
         <v>41</v>
       </c>
@@ -2461,7 +2461,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" ht="134" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="28"/>
+      <c r="A44" s="25"/>
       <c r="B44" s="15" t="s">
         <v>43</v>
       </c>
@@ -2490,18 +2490,15 @@
     <sortCondition ref="C38:C44"/>
   </sortState>
   <mergeCells count="6">
+    <mergeCell ref="A38:A44"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="A5:A12"/>
     <mergeCell ref="A15:A20"/>
     <mergeCell ref="A23:A31"/>
     <mergeCell ref="A32:A36"/>
-    <mergeCell ref="A38:A44"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="40" fitToHeight="5" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
-  <headerFooter>
-    <oddHeader>&amp;R&amp;"Arial"&amp;12&amp;K000000 UNCLASSIFIED / NON CLASSIFIÉ&amp;1#_x000D_</oddHeader>
-  </headerFooter>
 </worksheet>
 </file>
 
@@ -2922,28 +2919,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a4270b8d-452e-4cc9-9721-3e78974c1bdf">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="dabd6f10-3355-4faa-bc13-b9f4c64578e9" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="a4270b8d-452e-4cc9-9721-3e78974c1bdf" xsi:nil="true"/>
-    <Good_x0028_test_x0029_ xmlns="a4270b8d-452e-4cc9-9721-3e78974c1bdf">false</Good_x0028_test_x0029_>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A2D1583AA03DCA4D9377452A8FA8A94A" ma:contentTypeVersion="23" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="589006e973851565423487c6bc9e29ae">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a4270b8d-452e-4cc9-9721-3e78974c1bdf" xmlns:ns3="dabd6f10-3355-4faa-bc13-b9f4c64578e9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fa471ff356b74d34e1bb4c8f43568367" ns2:_="" ns3:_="">
     <xsd:import namespace="a4270b8d-452e-4cc9-9721-3e78974c1bdf"/>
@@ -3206,7 +3181,48 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a4270b8d-452e-4cc9-9721-3e78974c1bdf">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="dabd6f10-3355-4faa-bc13-b9f4c64578e9" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="a4270b8d-452e-4cc9-9721-3e78974c1bdf" xsi:nil="true"/>
+    <Good_x0028_test_x0029_ xmlns="a4270b8d-452e-4cc9-9721-3e78974c1bdf">false</Good_x0028_test_x0029_>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A38AE0B-18B3-4546-A12E-FDD1B639938C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a4270b8d-452e-4cc9-9721-3e78974c1bdf"/>
+    <ds:schemaRef ds:uri="dabd6f10-3355-4faa-bc13-b9f4c64578e9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88DBFFF3-36D8-489B-A13A-31E7CF705EA9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -3223,29 +3239,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E33C60DA-2186-43D2-B90C-E587D7E32982}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A38AE0B-18B3-4546-A12E-FDD1B639938C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a4270b8d-452e-4cc9-9721-3e78974c1bdf"/>
-    <ds:schemaRef ds:uri="dabd6f10-3355-4faa-bc13-b9f4c64578e9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>